--- a/Hosiden/pinstripes_round_425_50um_3x_10islands/mesh/mesh_maxwell_pinstripes.xlsx
+++ b/Hosiden/pinstripes_round_425_50um_3x_10islands/mesh/mesh_maxwell_pinstripes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrox\Desktop\Shared_Folder\Hosiden\pinstripes_round_494_3x\mesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrox\Desktop\Shared_Folder\Hosiden\pinstripes_round_425_50um_3x_10islands\mesh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D699E479-C54A-4FB7-8204-F6BFD93A8A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8F0EF-01D6-4BEC-8711-F3BA4B99A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="-15195" windowWidth="19575" windowHeight="12990"/>
+    <workbookView xWindow="30615" yWindow="-17970" windowWidth="21405" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mesh_maxwell" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+  <si>
+    <t>Hx0</t>
+  </si>
+  <si>
+    <t>HX1</t>
+  </si>
+  <si>
+    <t>Hx2</t>
+  </si>
+  <si>
+    <t>Ix0</t>
+  </si>
+  <si>
+    <t>Ix1</t>
+  </si>
+  <si>
+    <t>Ix2</t>
+  </si>
+  <si>
+    <t>Tx0</t>
+  </si>
+  <si>
+    <t>Tx1</t>
+  </si>
+  <si>
+    <t>Tx2</t>
+  </si>
+  <si>
+    <t>Rx0</t>
+  </si>
+  <si>
+    <t>Rx1</t>
+  </si>
+  <si>
+    <t>Rx2</t>
+  </si>
+  <si>
+    <t>TxIx0</t>
+  </si>
+  <si>
+    <t>TxIx1</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,912 +905,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1">
-        <v>19.4921180630996</v>
-      </c>
-      <c r="B1">
-        <v>-0.14583044079999999</v>
-      </c>
-      <c r="C1">
-        <v>-3.84041809E-3</v>
-      </c>
-      <c r="D1">
-        <v>-13.73199075</v>
-      </c>
-      <c r="E1">
-        <v>-1.200763623E-2</v>
-      </c>
-      <c r="F1">
-        <v>-8.5105702930000004E-4</v>
-      </c>
-      <c r="G1">
-        <v>-3.4725297290000001</v>
-      </c>
-      <c r="H1">
-        <v>-5.4815255010000001E-2</v>
-      </c>
-      <c r="I1" s="1">
-        <v>-9.5758194220000002E-7</v>
-      </c>
-      <c r="J1">
-        <v>-0.93211765130000002</v>
-      </c>
-      <c r="K1">
-        <v>-0.14668474370000001</v>
-      </c>
-      <c r="L1">
-        <v>-0.14670603839999999</v>
-      </c>
-      <c r="M1">
-        <v>-3.4057630550000002E-2</v>
-      </c>
-      <c r="N1" s="1">
-        <v>-2.5417669419999999E-9</v>
-      </c>
-      <c r="O1">
-        <v>-0.79423616239999995</v>
-      </c>
-      <c r="P1">
-        <v>-1.424649566E-4</v>
-      </c>
-      <c r="Q1">
-        <v>-1.6307125509999999E-2</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>-0.14583044079999999</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>20.447106122699999</v>
+        <v>16.3040048217688</v>
       </c>
       <c r="C2">
-        <v>-0.1457500431</v>
+        <v>-0.1190963298</v>
       </c>
       <c r="D2">
-        <v>-1.210902933E-2</v>
+        <v>-3.8966485819999998E-3</v>
       </c>
       <c r="E2">
-        <v>-13.8442069999999</v>
+        <v>-11.8698584</v>
       </c>
       <c r="F2">
-        <v>-1.2447036850000001E-2</v>
+        <v>-1.008868556E-2</v>
       </c>
       <c r="G2">
-        <v>-5.4640600550000001E-2</v>
+        <v>-8.6250289279999996E-4</v>
       </c>
       <c r="H2">
-        <v>-3.3561842749999999</v>
+        <v>-2.3605580060000002</v>
       </c>
       <c r="I2">
-        <v>-5.480275246E-2</v>
-      </c>
-      <c r="J2">
-        <v>-0.14504504979999999</v>
+        <v>-4.598412575E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1.569816669E-6</v>
       </c>
       <c r="K2">
-        <v>-0.91917583189999996</v>
+        <v>-0.84765286179999899</v>
       </c>
       <c r="L2">
-        <v>-0.14504022729999999</v>
+        <v>-0.12787090679999899</v>
       </c>
       <c r="M2">
-        <v>-3.3984188589999999E-2</v>
+        <v>-0.1271280105</v>
       </c>
       <c r="N2">
-        <v>-3.3966730649999999E-2</v>
-      </c>
-      <c r="O2">
-        <v>-0.82426030350000001</v>
+        <v>-2.8873863940000001E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-5.2235327630000004E-9</v>
       </c>
       <c r="P2">
-        <v>-0.70791700420000003</v>
+        <v>-0.74910475320000003</v>
       </c>
       <c r="Q2">
-        <v>-1.1745608669999999E-2</v>
+        <v>-1.554494238E-4</v>
+      </c>
+      <c r="R2">
+        <v>-1.287270248E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>-3.84041809E-3</v>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1457500431</v>
+        <v>-0.1190963298</v>
       </c>
       <c r="C3">
-        <v>19.687595679567799</v>
+        <v>16.578293170790001</v>
       </c>
       <c r="D3">
-        <v>-8.4912312639999997E-4</v>
+        <v>-0.1325373796</v>
       </c>
       <c r="E3">
-        <v>-1.2451876739999999E-2</v>
+        <v>-9.7751492039999908E-3</v>
       </c>
       <c r="F3">
-        <v>-13.89123528</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-8.6201857120000003E-7</v>
+        <v>-11.263647000000001</v>
+      </c>
+      <c r="G3">
+        <v>-1.016870884E-2</v>
       </c>
       <c r="H3">
-        <v>-5.3885854769999998E-2</v>
+        <v>-4.4867611180000003E-2</v>
       </c>
       <c r="I3">
-        <v>-3.4731445220000001</v>
+        <v>-2.2606526339999902</v>
       </c>
       <c r="J3">
-        <v>-0.14669972170000001</v>
+        <v>-4.5948828720000001E-2</v>
       </c>
       <c r="K3">
-        <v>-0.1467866749</v>
+        <v>-0.12601606069999999</v>
       </c>
       <c r="L3">
-        <v>-0.93241853480000003</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-2.1868913509999998E-9</v>
+        <v>-0.83964626440000001</v>
+      </c>
+      <c r="M3">
+        <v>-0.12616868319999899</v>
       </c>
       <c r="N3">
-        <v>-3.397879451E-2</v>
+        <v>-2.8425621009999999E-2</v>
       </c>
       <c r="O3">
-        <v>-1.51167445E-4</v>
+        <v>-2.8688245019999899E-2</v>
       </c>
       <c r="P3">
-        <v>-0.83790304530000004</v>
+        <v>-0.97655608959999896</v>
       </c>
       <c r="Q3">
-        <v>-8.499758881E-3</v>
+        <v>-0.55619369839999999</v>
+      </c>
+      <c r="R3">
+        <v>-9.9048671160000008E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>-13.73199075</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.210902933E-2</v>
+        <v>-3.8966485819999998E-3</v>
       </c>
       <c r="C4">
-        <v>-8.4912312639999997E-4</v>
+        <v>-0.1325373796</v>
       </c>
       <c r="D4">
-        <v>14.832000466076</v>
+        <v>16.992966880916601</v>
       </c>
       <c r="E4">
-        <v>-1.797259771E-3</v>
+        <v>-8.6121821059999899E-4</v>
       </c>
       <c r="F4">
-        <v>-1.88208053899999E-4</v>
+        <v>-1.0335958839999999E-2</v>
       </c>
       <c r="G4">
-        <v>-0.76841882100000003</v>
-      </c>
-      <c r="H4">
-        <v>-3.1694093999999999E-3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-2.121188662E-7</v>
+        <v>-12.69408052</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1.151967655E-6</v>
+      </c>
+      <c r="I4">
+        <v>-4.5763385810000001E-2</v>
       </c>
       <c r="J4">
-        <v>-0.230826485999999</v>
+        <v>-2.3602914739999901</v>
       </c>
       <c r="K4">
-        <v>-3.5774537920000002E-2</v>
+        <v>-0.1270562683</v>
       </c>
       <c r="L4">
-        <v>-3.5709590669999999E-2</v>
+        <v>-0.12805013379999899</v>
       </c>
       <c r="M4">
-        <v>-2.564375718E-3</v>
+        <v>-0.84742549570000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-5.5338583419999997E-10</v>
+        <v>-4.4306815980000001E-9</v>
       </c>
       <c r="O4">
-        <v>-4.9400827030000004E-3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-3.140901547E-5</v>
+        <v>-2.890576856E-2</v>
+      </c>
+      <c r="P4">
+        <v>-1.636466017E-4</v>
       </c>
       <c r="Q4">
-        <v>-3.6311706959999998E-3</v>
+        <v>-0.605750554</v>
+      </c>
+      <c r="R4">
+        <v>-7.8472725139999908E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>-1.200763623E-2</v>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>-13.8442069999999</v>
+        <v>-11.8698584</v>
       </c>
       <c r="C5">
-        <v>-1.2451876739999999E-2</v>
+        <v>-9.7751492039999908E-3</v>
       </c>
       <c r="D5">
-        <v>-1.797259771E-3</v>
+        <v>-8.6121821059999899E-4</v>
       </c>
       <c r="E5">
-        <v>14.9612165691439</v>
+        <v>12.684136070772601</v>
       </c>
       <c r="F5">
-        <v>-1.888260563E-3</v>
+        <v>-1.470178209E-3</v>
       </c>
       <c r="G5">
-        <v>-3.073609899E-3</v>
+        <v>-1.906717399E-4</v>
       </c>
       <c r="H5">
-        <v>-0.75204682050000005</v>
+        <v>-0.52485092990000004</v>
       </c>
       <c r="I5">
-        <v>-3.1975874120000001E-3</v>
-      </c>
-      <c r="J5">
-        <v>-3.565505049E-2</v>
+        <v>-2.448319214E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-3.4737007749999898E-7</v>
       </c>
       <c r="K5">
-        <v>-0.241693874</v>
+        <v>-0.20634002430000001</v>
       </c>
       <c r="L5">
-        <v>-3.5682834810000001E-2</v>
+        <v>-2.984210612E-2</v>
       </c>
       <c r="M5">
-        <v>-2.4672724669999998E-3</v>
+        <v>-2.9677574670000002E-2</v>
       </c>
       <c r="N5">
-        <v>-2.5843794960000001E-3</v>
-      </c>
-      <c r="O5">
-        <v>-4.6153797859999996E-3</v>
+        <v>-2.0140412660000001E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1.09963864999999E-9</v>
       </c>
       <c r="P5">
-        <v>-5.183574489E-3</v>
-      </c>
-      <c r="Q5">
-        <v>-2.6641524910000001E-3</v>
+        <v>-3.9152260119999904E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-3.4211629460000001E-5</v>
+      </c>
+      <c r="R5">
+        <v>-2.8576718280000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>-8.5105702930000004E-4</v>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.2447036850000001E-2</v>
+        <v>-1.008868556E-2</v>
       </c>
       <c r="C6">
-        <v>-13.89123528</v>
+        <v>-11.263647000000001</v>
       </c>
       <c r="D6">
-        <v>-1.88208053899999E-4</v>
+        <v>-1.0335958839999999E-2</v>
       </c>
       <c r="E6">
-        <v>-1.888260563E-3</v>
+        <v>-1.470178209E-3</v>
       </c>
       <c r="F6">
-        <v>14.989516692537199</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1.91283079E-7</v>
+        <v>12.092032816439</v>
+      </c>
+      <c r="G6">
+        <v>-1.519558939E-3</v>
       </c>
       <c r="H6">
-        <v>-3.0689693589999998E-3</v>
+        <v>-2.6070642749999899E-3</v>
       </c>
       <c r="I6">
-        <v>-0.76892591659999998</v>
+        <v>-0.51162194240000003</v>
       </c>
       <c r="J6">
-        <v>-3.5711330389999997E-2</v>
+        <v>-2.5685850690000001E-3</v>
       </c>
       <c r="K6">
-        <v>-3.5712837560000002E-2</v>
+        <v>-2.9960232099999901E-2</v>
       </c>
       <c r="L6">
-        <v>-0.2305237433</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-4.7476969469999999E-10</v>
+        <v>-0.21436462419999899</v>
+      </c>
+      <c r="M6">
+        <v>-2.9740018220000001E-2</v>
       </c>
       <c r="N6">
-        <v>-2.4942415930000001E-3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-3.3412760230000003E-5</v>
+        <v>-2.1251363959999899E-3</v>
+      </c>
+      <c r="O6">
+        <v>-2.1053654799999999E-3</v>
       </c>
       <c r="P6">
-        <v>-4.5684227110000001E-3</v>
+        <v>-3.4752200769999899E-3</v>
       </c>
       <c r="Q6">
-        <v>-1.8677840099999999E-3</v>
+        <v>-4.15435560199999E-3</v>
+      </c>
+      <c r="R6">
+        <v>-2.248891072E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>-3.4725297290000001</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.4640600550000001E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-8.6201857120000003E-7</v>
+        <v>-8.6250289279999996E-4</v>
+      </c>
+      <c r="C7">
+        <v>-1.016870884E-2</v>
       </c>
       <c r="D7">
-        <v>-0.76841882100000003</v>
+        <v>-12.69408052</v>
       </c>
       <c r="E7">
-        <v>-3.073609899E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-1.91283079E-7</v>
+        <v>-1.906717399E-4</v>
+      </c>
+      <c r="F7">
+        <v>-1.519558939E-3</v>
       </c>
       <c r="G7">
-        <v>9.9478004087250795</v>
-      </c>
-      <c r="H7">
-        <v>-0.24947704949999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1.892048318E-5</v>
+        <v>13.5076647526902</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-2.5533640869999899E-7</v>
+      </c>
+      <c r="I7">
+        <v>-2.4485112750000002E-3</v>
       </c>
       <c r="J7">
-        <v>-1.503801532</v>
+        <v>-0.52473853810000004</v>
       </c>
       <c r="K7">
-        <v>-1.286792299</v>
+        <v>-2.972786577E-2</v>
       </c>
       <c r="L7">
-        <v>-1.189588723</v>
+        <v>-2.9634181119999999E-2</v>
       </c>
       <c r="M7">
-        <v>-0.67071007120000004</v>
+        <v>-0.20661159439999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-3.01467498E-6</v>
+        <v>-9.5484552669999997E-10</v>
       </c>
       <c r="O7">
-        <v>-3.6821868649999999E-2</v>
+        <v>-2.03664591599999E-3</v>
       </c>
       <c r="P7" s="1">
-        <v>-3.1066267879999897E-8</v>
+        <v>-3.607749331E-5</v>
       </c>
       <c r="Q7">
-        <v>-0.71192308540000004</v>
+        <v>-3.8871144879999999E-3</v>
+      </c>
+      <c r="R7">
+        <v>-1.722005425E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>-5.4815255010000001E-2</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.3561842749999999</v>
+        <v>-2.3605580060000002</v>
       </c>
       <c r="C8">
-        <v>-5.3885854769999998E-2</v>
-      </c>
-      <c r="D8">
-        <v>-3.1694093999999999E-3</v>
+        <v>-4.4867611180000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1.151967655E-6</v>
       </c>
       <c r="E8">
-        <v>-0.75204682050000005</v>
+        <v>-0.52485092990000004</v>
       </c>
       <c r="F8">
-        <v>-3.0689693589999998E-3</v>
-      </c>
-      <c r="G8">
-        <v>-0.24947704949999999</v>
+        <v>-2.6070642749999899E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2.5533640869999899E-7</v>
       </c>
       <c r="H8">
-        <v>10.838874525239</v>
+        <v>7.3598607530701203</v>
       </c>
       <c r="I8">
-        <v>-0.24597100559999999</v>
-      </c>
-      <c r="J8">
-        <v>-1.1613469750000001</v>
+        <v>-0.19421099159999899</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-4.4977475819999897E-5</v>
       </c>
       <c r="K8">
-        <v>-1.5554483370000001</v>
+        <v>-1.149142849</v>
       </c>
       <c r="L8">
-        <v>-1.2028213699999999</v>
+        <v>-1.012244908</v>
       </c>
       <c r="M8">
-        <v>-0.69784901649999997</v>
+        <v>-0.99452241470000002</v>
       </c>
       <c r="N8">
-        <v>-0.72401459430000004</v>
-      </c>
-      <c r="O8">
-        <v>-3.602741072E-2</v>
+        <v>-0.55887589169999896</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-7.7733095279999903E-6</v>
       </c>
       <c r="P8">
-        <v>-3.7489479479999997E-2</v>
-      </c>
-      <c r="Q8">
-        <v>-0.70525870310000005</v>
+        <v>-3.1151458659999898E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-4.4565714710000002E-8</v>
+      </c>
+      <c r="R8">
+        <v>-0.48677442539999899</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
-        <v>-9.5758194220000002E-7</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.480275246E-2</v>
+        <v>-4.598412575E-2</v>
       </c>
       <c r="C9">
-        <v>-3.4731445220000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-2.121188662E-7</v>
+        <v>-2.2606526339999902</v>
+      </c>
+      <c r="D9">
+        <v>-4.5763385810000001E-2</v>
       </c>
       <c r="E9">
-        <v>-3.1975874120000001E-3</v>
+        <v>-2.448319214E-3</v>
       </c>
       <c r="F9">
-        <v>-0.76892591659999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1.892048318E-5</v>
+        <v>-0.51162194240000003</v>
+      </c>
+      <c r="G9">
+        <v>-2.4485112750000002E-3</v>
       </c>
       <c r="H9">
-        <v>-0.24597100559999999</v>
+        <v>-0.19421099159999899</v>
       </c>
       <c r="I9">
-        <v>9.9193787949524399</v>
+        <v>8.2928087580890004</v>
       </c>
       <c r="J9">
-        <v>-1.146294919</v>
+        <v>-0.19582080060000001</v>
       </c>
       <c r="K9">
-        <v>-1.268386209</v>
+        <v>-1.037335093</v>
       </c>
       <c r="L9">
-        <v>-1.507831733</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-3.0153348880000001E-6</v>
+        <v>-1.306501533</v>
+      </c>
+      <c r="M9">
+        <v>-1.018250002</v>
       </c>
       <c r="N9">
-        <v>-0.70352433459999997</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-3.6771561810000001E-8</v>
+        <v>-0.57502561900000004</v>
+      </c>
+      <c r="O9">
+        <v>-0.55652360069999895</v>
       </c>
       <c r="P9">
-        <v>-3.5358584389999899E-2</v>
+        <v>-2.908542926E-2</v>
       </c>
       <c r="Q9">
-        <v>-0.71191808860000005</v>
+        <v>-3.0445685279999898E-2</v>
+      </c>
+      <c r="R9">
+        <v>-0.48069108519999998</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>-0.93211765130000002</v>
-      </c>
-      <c r="B10">
-        <v>-0.14504504979999999</v>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1.569816669E-6</v>
       </c>
       <c r="C10">
-        <v>-0.14669972170000001</v>
+        <v>-4.5948828720000001E-2</v>
       </c>
       <c r="D10">
-        <v>-0.230826485999999</v>
-      </c>
-      <c r="E10">
-        <v>-3.565505049E-2</v>
+        <v>-2.3602914739999901</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-3.4737007749999898E-7</v>
       </c>
       <c r="F10">
-        <v>-3.5711330389999997E-2</v>
+        <v>-2.5685850690000001E-3</v>
       </c>
       <c r="G10">
-        <v>-1.503801532</v>
-      </c>
-      <c r="H10">
-        <v>-1.1613469750000001</v>
+        <v>-0.52473853810000004</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-4.4977475819999897E-5</v>
       </c>
       <c r="I10">
-        <v>-1.146294919</v>
+        <v>-0.19582080060000001</v>
       </c>
       <c r="J10">
-        <v>5.63726988953323</v>
+        <v>7.3522795987959002</v>
       </c>
       <c r="K10">
-        <v>-5.0958995259999997E-3</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-6.9691304230000005E-5</v>
+        <v>-0.99601792659999899</v>
+      </c>
+      <c r="L10">
+        <v>-1.0143030719999999</v>
       </c>
       <c r="M10">
-        <v>-1.89811761E-2</v>
-      </c>
-      <c r="N10">
-        <v>-1.8079708399999998E-2</v>
+        <v>-1.1420501890000001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-7.7679226800000007E-6</v>
       </c>
       <c r="O10">
-        <v>-3.0535121429999998E-3</v>
-      </c>
-      <c r="P10">
-        <v>-2.9897129799999998E-3</v>
+        <v>-0.5537519367</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-6.4031653830000001E-8</v>
       </c>
       <c r="Q10">
-        <v>-0.25150147340000001</v>
+        <v>-2.9972237190000001E-2</v>
+      </c>
+      <c r="R10">
+        <v>-0.48676128419999898</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11">
-        <v>-0.14668474370000001</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.91917583189999996</v>
+        <v>-0.84765286179999899</v>
       </c>
       <c r="C11">
-        <v>-0.1467866749</v>
+        <v>-0.12601606069999999</v>
       </c>
       <c r="D11">
-        <v>-3.5774537920000002E-2</v>
+        <v>-0.1270562683</v>
       </c>
       <c r="E11">
-        <v>-0.241693874</v>
+        <v>-0.20634002430000001</v>
       </c>
       <c r="F11">
-        <v>-3.5712837560000002E-2</v>
+        <v>-2.9960232099999901E-2</v>
       </c>
       <c r="G11">
-        <v>-1.286792299</v>
+        <v>-2.972786577E-2</v>
       </c>
       <c r="H11">
-        <v>-1.5554483370000001</v>
+        <v>-1.149142849</v>
       </c>
       <c r="I11">
-        <v>-1.268386209</v>
+        <v>-1.037335093</v>
       </c>
       <c r="J11">
-        <v>-5.0958995259999997E-3</v>
+        <v>-0.99601792659999899</v>
       </c>
       <c r="K11">
-        <v>5.9436035117600001</v>
+        <v>4.82712180625989</v>
       </c>
       <c r="L11">
-        <v>-5.0755353740000002E-3</v>
+        <v>-8.7990392840000004E-3</v>
       </c>
       <c r="M11">
-        <v>-2.0047688939999999E-2</v>
+        <v>-2.0946501889999901E-4</v>
       </c>
       <c r="N11">
-        <v>-1.923271658E-2</v>
+        <v>-1.98354549E-2</v>
       </c>
       <c r="O11">
-        <v>-3.1213211510000001E-3</v>
+        <v>-1.6864499429999898E-2</v>
       </c>
       <c r="P11">
-        <v>-3.0861769089999898E-3</v>
+        <v>-3.7088949320000001E-3</v>
       </c>
       <c r="Q11">
-        <v>-0.25148882830000002</v>
+        <v>-2.9867485250000001E-3</v>
+      </c>
+      <c r="R11">
+        <v>-0.2254685226</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12">
-        <v>-0.14670603839999999</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.14504022729999999</v>
+        <v>-0.12787090679999899</v>
       </c>
       <c r="C12">
-        <v>-0.93241853480000003</v>
+        <v>-0.83964626440000001</v>
       </c>
       <c r="D12">
-        <v>-3.5709590669999999E-2</v>
+        <v>-0.12805013379999899</v>
       </c>
       <c r="E12">
-        <v>-3.5682834810000001E-2</v>
+        <v>-2.984210612E-2</v>
       </c>
       <c r="F12">
-        <v>-0.2305237433</v>
+        <v>-0.21436462419999899</v>
       </c>
       <c r="G12">
-        <v>-1.189588723</v>
+        <v>-2.9634181119999999E-2</v>
       </c>
       <c r="H12">
-        <v>-1.2028213699999999</v>
+        <v>-1.012244908</v>
       </c>
       <c r="I12">
-        <v>-1.507831733</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-6.9691304230000005E-5</v>
+        <v>-1.306501533</v>
+      </c>
+      <c r="J12">
+        <v>-1.0143030719999999</v>
       </c>
       <c r="K12">
-        <v>-5.0755353740000002E-3</v>
+        <v>-8.7990392840000004E-3</v>
       </c>
       <c r="L12">
-        <v>5.72601442330423</v>
+        <v>4.9934793308850001</v>
       </c>
       <c r="M12">
-        <v>-1.8139432210000001E-2</v>
+        <v>-8.7685931310000007E-3</v>
       </c>
       <c r="N12">
-        <v>-1.88980012099999E-2</v>
+        <v>-2.0037208130000001E-2</v>
       </c>
       <c r="O12">
-        <v>-2.971298814E-3</v>
+        <v>-2.0075646539999902E-2</v>
       </c>
       <c r="P12">
-        <v>-3.039714712E-3</v>
+        <v>-3.5986231720000002E-3</v>
       </c>
       <c r="Q12">
-        <v>-0.2514979544</v>
+        <v>-3.7404946879999999E-3</v>
+      </c>
+      <c r="R12">
+        <v>-0.2260019965</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13">
-        <v>-3.4057630550000002E-2</v>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>-3.3984188589999999E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-2.1868913509999998E-9</v>
+        <v>-0.1271280105</v>
+      </c>
+      <c r="C13">
+        <v>-0.12616868319999899</v>
       </c>
       <c r="D13">
-        <v>-2.564375718E-3</v>
+        <v>-0.84742549570000003</v>
       </c>
       <c r="E13">
-        <v>-2.4672724669999998E-3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-4.7476969469999999E-10</v>
+        <v>-2.9677574670000002E-2</v>
+      </c>
+      <c r="F13">
+        <v>-2.9740018220000001E-2</v>
       </c>
       <c r="G13">
-        <v>-0.67071007120000004</v>
+        <v>-0.20661159439999999</v>
       </c>
       <c r="H13">
-        <v>-0.69784901649999997</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-3.0153348880000001E-6</v>
+        <v>-0.99452241470000002</v>
+      </c>
+      <c r="I13">
+        <v>-1.018250002</v>
       </c>
       <c r="J13">
-        <v>-1.89811761E-2</v>
+        <v>-1.1420501890000001</v>
       </c>
       <c r="K13">
-        <v>-2.0047688939999999E-2</v>
+        <v>-2.0946501889999901E-4</v>
       </c>
       <c r="L13">
-        <v>-1.8139432210000001E-2</v>
+        <v>-8.7685931310000007E-3</v>
       </c>
       <c r="M13">
-        <v>1.5268549974599801</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-4.7827975650000004E-7</v>
+        <v>4.7990406812008901</v>
+      </c>
+      <c r="N13">
+        <v>-1.6895686199999899E-2</v>
       </c>
       <c r="O13">
-        <v>-1.3792289629999999E-2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-1.086830422E-10</v>
+        <v>-1.943047128E-2</v>
+      </c>
+      <c r="P13">
+        <v>-2.9900820130000002E-3</v>
       </c>
       <c r="Q13">
-        <v>-1.425835917E-2</v>
+        <v>-3.69987686799999E-3</v>
+      </c>
+      <c r="R13">
+        <v>-0.2254725243</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
-        <v>-2.5417669419999999E-9</v>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-3.3966730649999999E-2</v>
+        <v>-2.8873863940000001E-2</v>
       </c>
       <c r="C14">
-        <v>-3.397879451E-2</v>
+        <v>-2.8425621009999999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>-5.5338583419999997E-10</v>
+        <v>-4.4306815980000001E-9</v>
       </c>
       <c r="E14">
-        <v>-2.5843794960000001E-3</v>
+        <v>-2.0140412660000001E-3</v>
       </c>
       <c r="F14">
-        <v>-2.4942415930000001E-3</v>
+        <v>-2.1251363959999899E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.01467498E-6</v>
+        <v>-9.5484552669999997E-10</v>
       </c>
       <c r="H14">
-        <v>-0.72401459430000004</v>
+        <v>-0.55887589169999896</v>
       </c>
       <c r="I14">
-        <v>-0.70352433459999997</v>
-      </c>
-      <c r="J14">
-        <v>-1.8079708399999998E-2</v>
+        <v>-0.57502561900000004</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-7.7679226800000007E-6</v>
       </c>
       <c r="K14">
-        <v>-1.923271658E-2</v>
+        <v>-1.98354549E-2</v>
       </c>
       <c r="L14">
-        <v>-1.88980012099999E-2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-4.7827975650000004E-7</v>
+        <v>-2.0037208130000001E-2</v>
+      </c>
+      <c r="M14">
+        <v>-1.6895686199999899E-2</v>
       </c>
       <c r="N14">
-        <v>1.5848277004924101</v>
+        <v>1.2759997449716201</v>
       </c>
       <c r="O14" s="1">
-        <v>-1.135221143E-10</v>
+        <v>-1.3175952000000001E-6</v>
       </c>
       <c r="P14">
-        <v>-1.3799265240000001E-2</v>
-      </c>
-      <c r="Q14">
-        <v>-1.425143775E-2</v>
+        <v>-1.18518892E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-2.6621553319999998E-10</v>
+      </c>
+      <c r="R14">
+        <v>-1.203024206E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>-0.79423616239999995</v>
-      </c>
-      <c r="B15">
-        <v>-0.82426030350000001</v>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-5.2235327630000004E-9</v>
       </c>
       <c r="C15">
-        <v>-1.51167445E-4</v>
+        <v>-2.8688245019999899E-2</v>
       </c>
       <c r="D15">
-        <v>-4.9400827030000004E-3</v>
-      </c>
-      <c r="E15">
-        <v>-4.6153797859999996E-3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-3.3412760230000003E-5</v>
+        <v>-2.890576856E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1.09963864999999E-9</v>
+      </c>
+      <c r="F15">
+        <v>-2.1053654799999999E-3</v>
       </c>
       <c r="G15">
-        <v>-3.6821868649999999E-2</v>
-      </c>
-      <c r="H15">
-        <v>-3.602741072E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-3.6771561810000001E-8</v>
+        <v>-2.03664591599999E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-7.7733095279999903E-6</v>
+      </c>
+      <c r="I15">
+        <v>-0.55652360069999895</v>
       </c>
       <c r="J15">
-        <v>-3.0535121429999998E-3</v>
+        <v>-0.5537519367</v>
       </c>
       <c r="K15">
-        <v>-3.1213211510000001E-3</v>
+        <v>-1.6864499429999898E-2</v>
       </c>
       <c r="L15">
-        <v>-2.971298814E-3</v>
+        <v>-2.0075646539999902E-2</v>
       </c>
       <c r="M15">
-        <v>-1.3792289629999999E-2</v>
+        <v>-1.943047128E-2</v>
       </c>
       <c r="N15" s="1">
-        <v>-1.135221143E-10</v>
+        <v>-1.3175952000000001E-6</v>
       </c>
       <c r="O15">
-        <v>1.7243155349813299</v>
+        <v>1.2519701382733801</v>
       </c>
       <c r="P15" s="1">
-        <v>-5.9039504199999999E-6</v>
+        <v>-3.194887058E-10</v>
       </c>
       <c r="Q15">
-        <v>-2.8538444359999898E-4</v>
+        <v>-1.154938329E-2</v>
+      </c>
+      <c r="R15">
+        <v>-1.202947781E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>-1.424649566E-4</v>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-0.70791700420000003</v>
+        <v>-0.74910475320000003</v>
       </c>
       <c r="C16">
-        <v>-0.83790304530000004</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-3.140901547E-5</v>
+        <v>-0.97655608959999896</v>
+      </c>
+      <c r="D16">
+        <v>-1.636466017E-4</v>
       </c>
       <c r="E16">
-        <v>-5.183574489E-3</v>
+        <v>-3.9152260119999904E-3</v>
       </c>
       <c r="F16">
-        <v>-4.5684227110000001E-3</v>
+        <v>-3.4752200769999899E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>-3.1066267879999897E-8</v>
+        <v>-3.607749331E-5</v>
       </c>
       <c r="H16">
-        <v>-3.7489479479999997E-2</v>
+        <v>-3.1151458659999898E-2</v>
       </c>
       <c r="I16">
-        <v>-3.5358584389999899E-2</v>
-      </c>
-      <c r="J16">
-        <v>-2.9897129799999998E-3</v>
+        <v>-2.908542926E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-6.4031653830000001E-8</v>
       </c>
       <c r="K16">
-        <v>-3.0861769089999898E-3</v>
+        <v>-3.7088949320000001E-3</v>
       </c>
       <c r="L16">
-        <v>-3.039714712E-3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>-1.086830422E-10</v>
+        <v>-3.5986231720000002E-3</v>
+      </c>
+      <c r="M16">
+        <v>-2.9900820130000002E-3</v>
       </c>
       <c r="N16">
-        <v>-1.3799265240000001E-2</v>
+        <v>-1.18518892E-2</v>
       </c>
       <c r="O16" s="1">
-        <v>-5.9039504199999999E-6</v>
+        <v>-3.194887058E-10</v>
       </c>
       <c r="P16">
-        <v>1.65170765904154</v>
-      </c>
-      <c r="Q16">
-        <v>-1.9286953309999999E-4</v>
+        <v>1.8159138198112399</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-7.0189158929999896E-6</v>
+      </c>
+      <c r="R16">
+        <v>-2.6934632320000003E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>-1.6307125509999999E-2</v>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>-1.1745608669999999E-2</v>
+        <v>-1.554494238E-4</v>
       </c>
       <c r="C17">
-        <v>-8.499758881E-3</v>
+        <v>-0.55619369839999999</v>
       </c>
       <c r="D17">
-        <v>-3.6311706959999998E-3</v>
-      </c>
-      <c r="E17">
-        <v>-2.6641524910000001E-3</v>
+        <v>-0.605750554</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-3.4211629460000001E-5</v>
       </c>
       <c r="F17">
-        <v>-1.8677840099999999E-3</v>
+        <v>-4.15435560199999E-3</v>
       </c>
       <c r="G17">
-        <v>-0.71192308540000004</v>
-      </c>
-      <c r="H17">
-        <v>-0.70525870310000005</v>
+        <v>-3.8871144879999999E-3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-4.4565714710000002E-8</v>
       </c>
       <c r="I17">
-        <v>-0.71191808860000005</v>
+        <v>-3.0445685279999898E-2</v>
       </c>
       <c r="J17">
-        <v>-0.25150147340000001</v>
+        <v>-2.9972237190000001E-2</v>
       </c>
       <c r="K17">
-        <v>-0.25148882830000002</v>
+        <v>-2.9867485250000001E-3</v>
       </c>
       <c r="L17">
-        <v>-0.2514979544</v>
+        <v>-3.7404946879999999E-3</v>
       </c>
       <c r="M17">
-        <v>-1.425835917E-2</v>
-      </c>
-      <c r="N17">
-        <v>-1.425143775E-2</v>
+        <v>-3.69987686799999E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-2.6621553319999998E-10</v>
       </c>
       <c r="O17">
-        <v>-2.8538444359999898E-4</v>
-      </c>
-      <c r="P17">
-        <v>-1.9286953309999999E-4</v>
+        <v>-1.154938329E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-7.0189158929999896E-6</v>
       </c>
       <c r="Q17">
-        <v>2.9572917843546902</v>
+        <v>1.25277634216228</v>
+      </c>
+      <c r="R17">
+        <v>-1.994690302E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>-1.287270248E-2</v>
+      </c>
+      <c r="C18">
+        <v>-9.9048671160000008E-3</v>
+      </c>
+      <c r="D18">
+        <v>-7.8472725139999908E-3</v>
+      </c>
+      <c r="E18">
+        <v>-2.8576718280000002E-3</v>
+      </c>
+      <c r="F18">
+        <v>-2.248891072E-3</v>
+      </c>
+      <c r="G18">
+        <v>-1.722005425E-3</v>
+      </c>
+      <c r="H18">
+        <v>-0.48677442539999899</v>
+      </c>
+      <c r="I18">
+        <v>-0.48069108519999998</v>
+      </c>
+      <c r="J18">
+        <v>-0.48676128419999898</v>
+      </c>
+      <c r="K18">
+        <v>-0.2254685226</v>
+      </c>
+      <c r="L18">
+        <v>-0.2260019965</v>
+      </c>
+      <c r="M18">
+        <v>-0.2254725243</v>
+      </c>
+      <c r="N18">
+        <v>-1.203024206E-2</v>
+      </c>
+      <c r="O18">
+        <v>-1.202947781E-2</v>
+      </c>
+      <c r="P18">
+        <v>-2.6934632320000003E-4</v>
+      </c>
+      <c r="Q18">
+        <v>-1.994690302E-4</v>
+      </c>
+      <c r="R18">
+        <v>2.19315178385839</v>
       </c>
     </row>
   </sheetData>
